--- a/MSVPP/analysis/Excel analysis.xlsx
+++ b/MSVPP/analysis/Excel analysis.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Problem instance 9" sheetId="1" r:id="rId1"/>
     <sheet name="Problem instance 10" sheetId="2" r:id="rId2"/>
-    <sheet name="Optimal solutions" sheetId="3" r:id="rId3"/>
+    <sheet name="Problem instance 12" sheetId="5" r:id="rId3"/>
+    <sheet name="Optimal solutions" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
   <si>
     <t>Problem instance 9</t>
   </si>
@@ -29,12 +30,6 @@
     <t>Best found feasible solution</t>
   </si>
   <si>
-    <t>[5, 4, 1, 3, 7]</t>
-  </si>
-  <si>
-    <t>[9, 2, 8]</t>
-  </si>
-  <si>
     <t>Voyage</t>
   </si>
   <si>
@@ -44,27 +39,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>[8, 7, 6, 1, 4, 9]</t>
-  </si>
-  <si>
-    <t>[8, 2, 3, 1, 4, 9]</t>
-  </si>
-  <si>
-    <t>[7, 8, 2]</t>
-  </si>
-  <si>
-    <t>[4, 5, 1, 3, 9]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2, 9, 1, 3, 7, 8] </t>
-  </si>
-  <si>
-    <t>[6, 4, 1, 3, 2]</t>
-  </si>
-  <si>
-    <t>[8, 7, 9]</t>
-  </si>
-  <si>
     <t>Optimal solution</t>
   </si>
   <si>
@@ -86,6 +60,9 @@
     <t>Visits</t>
   </si>
   <si>
+    <t>Length</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -105,6 +82,225 @@
   </si>
   <si>
     <t>ikke opt</t>
+  </si>
+  <si>
+    <t>Day / Vessel</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>[2, 8, 7, 3, 4, 1, 9]</t>
+  </si>
+  <si>
+    <t>[5, 4, 1, 6, 9, 8]</t>
+  </si>
+  <si>
+    <t>[4, 1, 3, 9, 7, 2, 8]</t>
+  </si>
+  <si>
+    <t>[6, 7, 8, 2, 3, 5, 1, 9]</t>
+  </si>
+  <si>
+    <t>Samme inst sett</t>
+  </si>
+  <si>
+    <t>En 2er for mye</t>
+  </si>
+  <si>
+    <t>En 5er for lite</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Vessel</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>0,2,3,4,5</t>
+  </si>
+  <si>
+    <t>0,1,2,3,5</t>
+  </si>
+  <si>
+    <t>0,1,3,4,5</t>
+  </si>
+  <si>
+    <t>Problem instance 10</t>
+  </si>
+  <si>
+    <t>6-1-9-7-8-10</t>
+  </si>
+  <si>
+    <t>2-3-4-1-9-7-8</t>
+  </si>
+  <si>
+    <t>4-1-3-6-9-2-8</t>
+  </si>
+  <si>
+    <t>2-3-4-5-1-9-7-8</t>
+  </si>
+  <si>
+    <t>Klarer å finne samme vessel pattern og samme installation pattern bortsett fra 7! Finner bare 0,1,2,3,4 for 7</t>
+  </si>
+  <si>
+    <t>Finner bare 0,1,2,3,4</t>
+  </si>
+  <si>
+    <t>Day: 0 - vessel 1: [7, 8, 2, 9, 1, 3, 5, 4] cost: 115024,28 dur: 71,91 cap: 1021,28, vessel 2: -, vessel 3: -</t>
+  </si>
+  <si>
+    <t>Day: 1 - vessel 1: -, vessel 2: [7, 8, 2, 6, 1, 9] cost: 68667,95 dur: 47,66 cap: 884,00, vessel 3: -</t>
+  </si>
+  <si>
+    <t>Day: 2 - vessel 1: -, vessel 2: -, vessel 3: [8, 7, 3, 1, 4, 9] cost: 100687,14 dur: 62,08 cap: 754,76</t>
+  </si>
+  <si>
+    <t>Day: 3 - vessel 1: -, vessel 2: [5, 4, 1, 9, 7, 3, 2, 8] cost: 115024,28 dur: 71,91 cap: 1021,28, vessel 3: -</t>
+  </si>
+  <si>
+    <t>Day: 4 - vessel 1: [8, 2, 3, 1, 4, 6, 9] cost: 108661,64 dur: 67,66 cap: 1084,40, vessel 2: -, vessel 3: -</t>
+  </si>
+  <si>
+    <t>Day: 5 - vessel 1: -, vessel 2: -, vessel 3: [2, 8, 7, 3, 4, 1, 9] cost: 107146,73 dur: 66,41 cap: 895,88</t>
+  </si>
+  <si>
+    <t>Day: 6 - vessel 1: -, vessel 2: -, vessel 3: -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7, 8, 2, 9, 1, 3, 5, 4]</t>
+  </si>
+  <si>
+    <t>[7, 8, 2, 6, 1, 9]</t>
+  </si>
+  <si>
+    <t>[8, 7, 3, 1, 4, 9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5, 4, 1, 9, 7, 3, 2, 8]</t>
+  </si>
+  <si>
+    <t>[8, 2, 3, 1, 4, 6, 9]</t>
+  </si>
+  <si>
+    <t>[2, 8, 7, 3, 4, 1, 9</t>
+  </si>
+  <si>
+    <t>Day: 0 - vessel 1: [2, 8, 7, 3, 4, 5, 1, 9] cost: 115024,28 dur: 71,91 cap: 1021,28, vessel 2: -, vessel 3: -</t>
+  </si>
+  <si>
+    <t>Day: 2 - vessel 1: -, vessel 2: -, vessel 3: [8, 7, 3, 4, 1, 9] cost: 100687,14 dur: 62,08 cap: 754,76</t>
+  </si>
+  <si>
+    <t>Day: 3 - vessel 1: -, vessel 2: [2, 3, 5, 4, 1, 9, 7, 8] cost: 115024,28 dur: 71,91 cap: 1021,28, vessel 3: -</t>
+  </si>
+  <si>
+    <t>Day: 4 - vessel 1: [8, 2, 3, 1, 4, 9, 6] cost: 108661,64 dur: 67,66 cap: 1084,40, vessel 2: -, vessel 3: -</t>
+  </si>
+  <si>
+    <t>Day: 5 - vessel 1: -, vessel 2: -, vessel 3: [4, 3, 1, 9, 7, 2, 8] cost: 107146,73 dur: 66,41 cap: 895,88</t>
+  </si>
+  <si>
+    <t>[2, 8, 7, 3, 4, 5, 1, 9]</t>
+  </si>
+  <si>
+    <t>[8, 7, 3, 4, 1, 9]</t>
+  </si>
+  <si>
+    <t>[2, 3, 5, 4, 1, 9, 7, 8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8, 2, 3, 1, 4, 9, 6]</t>
+  </si>
+  <si>
+    <t>[4, 3, 1, 9, 7, 2, 8]</t>
+  </si>
+  <si>
+    <t>Day: 0 - vessel 1: -, vessel 2: -, vessel 3: [7, 9, 4, 5, 1, 3, 2, 8] cost: 115024,28 dur: 63,91 cap: 1021,28</t>
+  </si>
+  <si>
+    <t>Day: 1 - vessel 1: [6, 1, 9, 7, 8] cost: 62208,37 dur: 35,33 cap: 742,88, vessel 2: -, vessel 3: -</t>
+  </si>
+  <si>
+    <t>Day: 2 - vessel 1: -, vessel 2: [7, 9, 4, 1, 3, 2, 8] cost: 107146,73 dur: 58,41 cap: 895,88, vessel 3: -</t>
+  </si>
+  <si>
+    <t>Day: 3 - vessel 1: [2, 3, 5, 4, 1, 9, 7, 8] cost: 115024,28 dur: 63,91 cap: 1021,28, vessel 2: -, vessel 3: -</t>
+  </si>
+  <si>
+    <t>Day: 4 - vessel 1: -, vessel 2: -, vessel 3: [8, 2, 3, 1, 4, 9, 6] cost: 108661,64 dur: 59,66 cap: 1084,40</t>
+  </si>
+  <si>
+    <t>Day: 5 - vessel 1: -, vessel 2: [2, 8, 7, 3, 4, 1, 9] cost: 107146,73 dur: 58,41 cap: 895,88, vessel 3: -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7, 9, 4, 5, 1, 3, 2, 8] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6, 1, 9, 7, 8]</t>
+  </si>
+  <si>
+    <t>[7, 9, 4, 1, 3, 2, 8]</t>
+  </si>
+  <si>
+    <t>[8, 2, 3, 1, 4, 9, 6]</t>
+  </si>
+  <si>
+    <t>Problem instance 12</t>
+  </si>
+  <si>
+    <t>[2, 9, 12, 4, 1, 3, 7, 8]</t>
+  </si>
+  <si>
+    <t>[6, 1, 4, 5, 9, 7, 8]</t>
+  </si>
+  <si>
+    <t>[11, 8, 2, 3, 4, 12, 1, 9]</t>
+  </si>
+  <si>
+    <t>[8, 2, 9, 4, 12, 1, 3, 7]</t>
+  </si>
+  <si>
+    <t>[2, 9, 1, 3, 7, 8, 11]</t>
+  </si>
+  <si>
+    <t>[6, 1, 9, 2, 11]</t>
+  </si>
+  <si>
+    <t>[4, 5, 12, 3, 7, 8]</t>
+  </si>
+  <si>
+    <t>2-3-4-1-9-7-8-11</t>
+  </si>
+  <si>
+    <t>4-5-12-1-9-2-8-11</t>
+  </si>
+  <si>
+    <t>10-2-3-1-6</t>
+  </si>
+  <si>
+    <t>6-1-9-3-7-8-11</t>
+  </si>
+  <si>
+    <t>4-5-12-9-7-8-11</t>
+  </si>
+  <si>
+    <t>2-8-7-3-4-12-1-9</t>
+  </si>
+  <si>
+    <t>[10, 11]</t>
   </si>
 </sst>
 </file>
@@ -168,7 +364,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -202,8 +398,188 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,8 +587,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="213">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -229,6 +606,96 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -245,6 +712,96 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -574,179 +1131,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:31">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:31">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" spans="2:31">
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>115024</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f>68.7 + 10.448+78.389+26.505+50.303+7.875+11.786+9.8945+63.009</f>
+        <v>326.90949999999998</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>7</v>
+      </c>
+      <c r="V6">
+        <v>8</v>
+      </c>
+      <c r="W6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>62209</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7">
+        <v>1.4</v>
+      </c>
+      <c r="T7">
+        <v>1.2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>107147</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f>((F6-F19)/12)*7129*0.34</f>
+        <v>2254.7351684999944</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>92507</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>115024</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>108661</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <f>(F6/12)*7129*0.34</f>
+        <v>66031.905055833326</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10">
+        <v>1.4</v>
+      </c>
+      <c r="P10">
+        <v>0.3</v>
+      </c>
+      <c r="Q10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>107147</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <f>(2.75+7+5.5+4.5+3.33+4.25+3.33+2.25)*7129*0.17</f>
+        <v>39884.616300000002</v>
+      </c>
+      <c r="H11">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>49180</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>100384</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>101390</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>44029</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>97657</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31">
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>68970</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>92603</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="Q12">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" t="s">
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <f>SUM(O12:W12)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="15" spans="2:31">
+      <c r="B15" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C14">
-        <v>48477</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C15" s="3">
         <f>SUMPRODUCT(C6:C14,D6:D14)</f>
-        <v>695197</v>
+        <v>615212</v>
       </c>
       <c r="D15" s="3">
         <f>SUM(D6:D14)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
         <f>SUM(E6:E14)</f>
@@ -754,31 +1467,46 @@
       </c>
       <c r="F15">
         <f>E15/D15</f>
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
       <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
       <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>115024</v>
@@ -789,10 +1517,54 @@
       <c r="E19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="F19">
+        <f>62.2176+11.786+79.5552+26.5045+50.303+4.927+10.448+6.9965+63.009</f>
+        <v>315.74680000000001</v>
+      </c>
+      <c r="G19">
+        <v>79.91</v>
+      </c>
+      <c r="H19">
+        <f>G19-16</f>
+        <v>63.91</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>7</v>
+      </c>
+      <c r="V19">
+        <v>8</v>
+      </c>
+      <c r="W19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>68667</v>
@@ -803,10 +1575,50 @@
       <c r="E20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="G20">
+        <v>55.66</v>
+      </c>
+      <c r="H20">
+        <f>G20-16</f>
+        <v>39.659999999999997</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20">
+        <v>0.3</v>
+      </c>
+      <c r="T20">
+        <v>1.4</v>
+      </c>
+      <c r="U20" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>100687</v>
@@ -817,10 +1629,26 @@
       <c r="E21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="G21">
+        <v>70.08</v>
+      </c>
+      <c r="H21">
+        <f>G21-16</f>
+        <v>54.08</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>108661</v>
@@ -831,10 +1659,35 @@
       <c r="E22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="G22">
+        <v>75.66</v>
+      </c>
+      <c r="H22">
+        <f>G22-16</f>
+        <v>59.66</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="U22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>107146</v>
@@ -845,10 +1698,32 @@
       <c r="E23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="G23">
+        <v>74.41</v>
+      </c>
+      <c r="H23">
+        <f>G23-16</f>
+        <v>58.41</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>0.4</v>
+      </c>
+      <c r="P23">
+        <v>1.3</v>
+      </c>
+      <c r="Q23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24">
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3">
         <f>SUMPRODUCT(C19:C23,D19:D23)</f>
@@ -866,9 +1741,265 @@
         <f>E24/D24</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24">
+      <c r="I25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
       <c r="B26" s="2"/>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>5</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <f>SUM(O28:W28)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24">
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="L43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -886,20 +2017,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:V36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -910,277 +2043,377 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>92507</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>49180</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>100384</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>101390</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>44029</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>97657</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>68970</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>92603</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>48477</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
         <f>SUMPRODUCT(C6:C14,D6:D14)</f>
-        <v>695197</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
         <f>SUM(D6:D14)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <f>SUM(E6:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" t="e">
+        <f>E15/D15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>8</v>
+      </c>
+      <c r="U18">
+        <v>9</v>
+      </c>
+      <c r="V18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>68934</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19">
+        <v>2.5</v>
+      </c>
+      <c r="R19">
+        <v>1.4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>107146</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
         <v>42</v>
       </c>
-      <c r="F15">
-        <f>E15/D15</f>
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
+      <c r="M20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>108661</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>115024</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22">
+        <v>1.4</v>
+      </c>
+      <c r="N22">
+        <v>2.5</v>
+      </c>
+      <c r="O22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
+        <f>SUMPRODUCT(C19:C22,D19:D22)</f>
+        <v>621935</v>
+      </c>
+      <c r="D23" s="3">
+        <f>SUM(D19:D22)</f>
+        <v>6</v>
+      </c>
+      <c r="E23" s="3">
+        <f>SUMPRODUCT(D19:D22,E19:E22)</f>
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <f>E23/D23</f>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="H23">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="H24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>6</v>
+      </c>
+      <c r="V27">
+        <f>SUM(M27:U27)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="H29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>115024</v>
-      </c>
-      <c r="D19">
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>68667</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <v>100687</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22">
-        <v>108661</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>107146</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3">
-        <f>SUMPRODUCT(C19:C23,D19:D23)</f>
-        <v>615209</v>
-      </c>
-      <c r="D24" s="3">
-        <f>SUM(D19:D23)</f>
-        <v>6</v>
-      </c>
-      <c r="E24" s="3">
-        <f>SUMPRODUCT(D19:D23,E19:E23)</f>
+      <c r="I32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11">
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
         <v>42</v>
       </c>
-      <c r="F24">
-        <f>E24/D24</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2"/>
+    </row>
+    <row r="34" spans="8:11">
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11">
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11">
+      <c r="H36">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1198,10 +2431,484 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14">
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7">
+        <v>33691</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>113206</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>108261</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>112600</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>113206</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>74121</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>62911</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>97257</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUMPRODUCT(C7:C14,D7:D14)</f>
+        <v>715253</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(D7:D14)</f>
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUM(E7:E14)</f>
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <f>E15/D15</f>
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19">
+        <v>112297</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <v>112903</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21">
+        <v>61154</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22">
+        <v>74934</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <v>105741</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24">
+        <v>113206</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3">
+        <f>SUMPRODUCT(C19:C24,D19:D24)</f>
+        <v>693441</v>
+      </c>
+      <c r="D25" s="3">
+        <f>SUM(D19:D24)</f>
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <f>SUMPRODUCT(D19:D24,E19:E24)</f>
+        <v>51</v>
+      </c>
+      <c r="F25">
+        <f>E25/D25</f>
+        <v>7.2857142857142856</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1212,19 +2919,19 @@
   <sheetData>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1391,7 +3098,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1412,7 +3119,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1433,7 +3140,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>14</v>

--- a/MSVPP/analysis/Excel analysis.xlsx
+++ b/MSVPP/analysis/Excel analysis.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Problem instance 9" sheetId="1" r:id="rId1"/>
     <sheet name="Problem instance 10" sheetId="2" r:id="rId2"/>
     <sheet name="Problem instance 12" sheetId="5" r:id="rId3"/>
-    <sheet name="Optimal solutions" sheetId="3" r:id="rId4"/>
+    <sheet name="Problem instance 14" sheetId="6" r:id="rId4"/>
+    <sheet name="Optimal solutions" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="139">
   <si>
     <t>Problem instance 9</t>
   </si>
@@ -301,6 +302,144 @@
   </si>
   <si>
     <t>[10, 11]</t>
+  </si>
+  <si>
+    <t>[10, 11] - 468.60</t>
+  </si>
+  <si>
+    <t>[2, 9, 12, 4, 1, 3, 7, 8] - 969.38</t>
+  </si>
+  <si>
+    <t>[6, 1, 4, 5, 9, 7, 8] - 1025</t>
+  </si>
+  <si>
+    <t>[11, 8, 2, 3, 4, 12, 1, 9] - 993.50</t>
+  </si>
+  <si>
+    <t>[8, 2, 9, 4, 12, 1, 3, 7] - 969.38</t>
+  </si>
+  <si>
+    <t>[2, 9, 1, 3, 7, 8, 11] - 874.16</t>
+  </si>
+  <si>
+    <t>[6, 1, 9, 2, 11] - 858,12</t>
+  </si>
+  <si>
+    <t>[4, 5, 12, 3, 7, 8] - 671,06</t>
+  </si>
+  <si>
+    <t>Max cap</t>
+  </si>
+  <si>
+    <t>4-5-12-1-9-2-8-11 - 964,34</t>
+  </si>
+  <si>
+    <t>2-3-4-1-9-7-8-11 -  1030,88</t>
+  </si>
+  <si>
+    <t>10-2-3-1-6 - 1051,28</t>
+  </si>
+  <si>
+    <t>4-5-12-9-7-8-11 - 811,50</t>
+  </si>
+  <si>
+    <t>2-8-7-3-4-12-1-9 - 969,38</t>
+  </si>
+  <si>
+    <t>6-1-9-3-7-8-11 - 1032,44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-8-7-3-4-12-1-9 - 969,38 </t>
+  </si>
+  <si>
+    <t>Problem instance 14</t>
+  </si>
+  <si>
+    <t>Day: 0 - vessel 1: -, vessel 2: -, vessel 3: -, vessel 4: 2-3-4-1-9-7-8-13</t>
+  </si>
+  <si>
+    <t>Day: 1 - vessel 1: 10-8-7-9-2-11-13, vessel 2: 4-5-12-1-3-6-14, vessel 3: -, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 2 - vessel 1: -, vessel 2: -, vessel 3: 4-12-1-9-7-14-8-11, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 3 - vessel 1: -, vessel 2: -, vessel 3: -, vessel 4: 2-3-4-1-9-7-8-13</t>
+  </si>
+  <si>
+    <t>Day: 4 - vessel 1: 8-14-3-1-12-9-2-11, vessel 2: -, vessel 3: -, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 5 - vessel 1: -, vessel 2: 7-3-1-6-14-8-13, vessel 3: 4-5-12-9-2-11, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 6 - vessel 1: -, vessel 2: -, vessel 3: -, vessel 4: -</t>
+  </si>
+  <si>
+    <t>2-3-4-1-9-7-8-13</t>
+  </si>
+  <si>
+    <t>10-8-7-9-2-11-13</t>
+  </si>
+  <si>
+    <t>4-5-12-1-3-6-14</t>
+  </si>
+  <si>
+    <t>4-12-1-9-7-14-8-11</t>
+  </si>
+  <si>
+    <t>8-14-3-1-12-9-2-11</t>
+  </si>
+  <si>
+    <t>7-3-1-6-14-8-13</t>
+  </si>
+  <si>
+    <t>4-5-12-9-2-11</t>
+  </si>
+  <si>
+    <t>Day: 0 - vessel 1: [7, 14, 8, 13] cost: 48780,18 dur: 26,25 cap: 384,38, vessel 2: -, vessel 3: [4, 12, 3, 1, 9, 2, 11] cost: 107449,71 dur: 59,66 cap: 943,50, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 1 - vessel 1: -, vessel 2: [4, 1, 3, 9, 7, 8, 11] cost: 105837,85 dur: 58,33 cap: 889,76, vessel 3: -, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 2 - vessel 1: [10, 2, 6, 14] cost: 53179,49 dur: 29,88 cap: 847,62, vessel 2: -, vessel 3: -, vessel 4: [4, 5, 12, 1, 9, 7, 8, 13] cost: 112200,48 dur: 62,58 cap: 949,10</t>
+  </si>
+  <si>
+    <t>Day: 3 - vessel 1: -, vessel 2: -, vessel 3: [9, 1, 3, 14, 8, 7, 2, 11] cost: 80181,29 dur: 48,16 cap: 947,66, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 4 - vessel 1: [4, 12, 3, 1, 9, 2, 8, 13] cost: 112600,42 dur: 62,91 cap: 1008,50, vessel 2: -, vessel 3: -, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 5 - vessel 1: -, vessel 2: [14, 3, 6, 7, 8, 11] cost: 63626,33 dur: 36,50 cap: 823,34, vessel 3: -, vessel 4: [4, 5, 12, 1, 9, 2, 13] cost: 107752,70 dur: 59,91 cap: 929,34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7, 14, 8, 13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4, 12, 3, 1, 9, 2, 11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4, 1, 3, 9, 7, 8, 11]</t>
+  </si>
+  <si>
+    <t>[10, 2, 6, 14]</t>
+  </si>
+  <si>
+    <t>[4, 5, 12, 1, 9, 7, 8, 13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9, 1, 3, 14, 8, 7, 2, 11]</t>
+  </si>
+  <si>
+    <t>[4, 12, 3, 1, 9, 2, 8, 13</t>
+  </si>
+  <si>
+    <t>[14, 3, 6, 7, 8, 11]</t>
+  </si>
+  <si>
+    <t>[4, 5, 12, 1, 9, 2, 13]</t>
   </si>
 </sst>
 </file>
@@ -364,8 +503,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="213">
+  <cellStyleXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -589,7 +754,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="213">
+  <cellStyles count="239">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -696,6 +861,19 @@
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -802,6 +980,19 @@
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2433,16 +2624,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
@@ -2508,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>10</v>
@@ -2534,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -2557,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>8</v>
@@ -2580,7 +2773,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>8</v>
@@ -2603,7 +2796,7 @@
         <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>7</v>
@@ -2626,10 +2819,10 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>11</v>
@@ -2665,6 +2858,21 @@
       <c r="E14">
         <v>6</v>
       </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14">
+        <v>1046</v>
+      </c>
+      <c r="J14">
+        <v>900</v>
+      </c>
+      <c r="K14">
+        <v>1090</v>
+      </c>
+      <c r="L14">
+        <v>1090</v>
+      </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="3" t="s">
@@ -2738,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="N19">
         <v>12</v>
@@ -2763,8 +2971,8 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
-        <v>86</v>
+      <c r="K20" t="s">
+        <v>103</v>
       </c>
       <c r="N20">
         <v>8</v>
@@ -2786,8 +2994,8 @@
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="K21" t="s">
-        <v>91</v>
+      <c r="I21" t="s">
+        <v>106</v>
       </c>
       <c r="N21">
         <v>8</v>
@@ -2809,8 +3017,8 @@
       <c r="H22">
         <v>3</v>
       </c>
-      <c r="J22" t="s">
-        <v>89</v>
+      <c r="L22" t="s">
+        <v>107</v>
       </c>
       <c r="N22">
         <v>7</v>
@@ -2832,8 +3040,8 @@
       <c r="H23">
         <v>4</v>
       </c>
-      <c r="I23" t="s">
-        <v>87</v>
+      <c r="K23" t="s">
+        <v>102</v>
       </c>
       <c r="N23">
         <v>8</v>
@@ -2855,8 +3063,8 @@
       <c r="H24">
         <v>5</v>
       </c>
-      <c r="K24" t="s">
-        <v>91</v>
+      <c r="I24" t="s">
+        <v>108</v>
       </c>
       <c r="N24">
         <v>8</v>
@@ -2884,6 +3092,23 @@
       </c>
       <c r="H25">
         <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26">
+        <v>1046</v>
+      </c>
+      <c r="J26">
+        <v>900</v>
+      </c>
+      <c r="K26">
+        <v>1090</v>
+      </c>
+      <c r="L26">
+        <v>1090</v>
       </c>
     </row>
     <row r="27" spans="2:14">
@@ -2905,10 +3130,420 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F15"/>
+  <dimension ref="B3:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14">
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>135</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="H13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="2"/>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14">
+        <v>1046</v>
+      </c>
+      <c r="J14">
+        <v>900</v>
+      </c>
+      <c r="K14">
+        <v>1090</v>
+      </c>
+      <c r="L14">
+        <v>1090</v>
+      </c>
+      <c r="N14">
+        <f>SUM(N7:N12)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUMPRODUCT(C7:C14,D7:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(D7:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUM(E7:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" t="e">
+        <f>E15/D15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" t="s">
+        <v>123</v>
+      </c>
+      <c r="N24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="H25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26">
+        <v>1046</v>
+      </c>
+      <c r="J26">
+        <v>900</v>
+      </c>
+      <c r="K26">
+        <v>1090</v>
+      </c>
+      <c r="L26">
+        <v>1090</v>
+      </c>
+      <c r="N26">
+        <f>SUM(N19:N24)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3">
+        <f>SUMPRODUCT(C19:C24,D19:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <f>SUM(D19:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <f>SUMPRODUCT(D19:D24,E19:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" t="e">
+        <f>E27/D27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2917,7 +3552,7 @@
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2934,7 +3569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="B4">
         <v>3</v>
       </c>
@@ -2951,8 +3586,12 @@
         <f>C4/D4</f>
         <v>2.6666666666666665</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="0">C4/8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5">
         <v>4</v>
       </c>
@@ -2966,11 +3605,15 @@
         <v>3</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F15" si="0">C5/D5</f>
+        <f t="shared" ref="F5:F15" si="1">C5/D5</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6">
         <v>5</v>
       </c>
@@ -2984,11 +3627,15 @@
         <v>3</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>3.8333333333333335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>6</v>
       </c>
@@ -3002,11 +3649,15 @@
         <v>3</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8">
         <v>7</v>
       </c>
@@ -3020,11 +3671,15 @@
         <v>3</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9">
         <v>8</v>
       </c>
@@ -3038,11 +3693,15 @@
         <v>3</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10">
         <v>9</v>
       </c>
@@ -3056,11 +3715,15 @@
         <v>3</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>10</v>
       </c>
@@ -3074,11 +3737,15 @@
         <v>3</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>7.166666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12">
         <v>11</v>
       </c>
@@ -3092,11 +3759,15 @@
         <v>3</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>6.7142857142857144</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>6.7142857142857144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3113,11 +3784,15 @@
         <v>4</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>7.2857142857142856</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
-        <v>7.2857142857142856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3134,11 +3809,15 @@
         <v>4</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>6.875</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>6.875</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3155,8 +3834,12 @@
         <v>4</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5555555555555554</v>
+      </c>
+      <c r="G15">
+        <f>C15/8</f>
+        <v>7.375</v>
       </c>
     </row>
   </sheetData>

--- a/MSVPP/analysis/Excel analysis.xlsx
+++ b/MSVPP/analysis/Excel analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Problem instance 9" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="174">
   <si>
     <t>Problem instance 9</t>
   </si>
@@ -286,93 +286,18 @@
     <t>2-3-4-1-9-7-8-11</t>
   </si>
   <si>
-    <t>4-5-12-1-9-2-8-11</t>
-  </si>
-  <si>
-    <t>10-2-3-1-6</t>
-  </si>
-  <si>
-    <t>6-1-9-3-7-8-11</t>
-  </si>
-  <si>
-    <t>4-5-12-9-7-8-11</t>
-  </si>
-  <si>
     <t>2-8-7-3-4-12-1-9</t>
   </si>
   <si>
     <t>[10, 11]</t>
   </si>
   <si>
-    <t>[10, 11] - 468.60</t>
-  </si>
-  <si>
-    <t>[2, 9, 12, 4, 1, 3, 7, 8] - 969.38</t>
-  </si>
-  <si>
-    <t>[6, 1, 4, 5, 9, 7, 8] - 1025</t>
-  </si>
-  <si>
-    <t>[11, 8, 2, 3, 4, 12, 1, 9] - 993.50</t>
-  </si>
-  <si>
-    <t>[8, 2, 9, 4, 12, 1, 3, 7] - 969.38</t>
-  </si>
-  <si>
-    <t>[2, 9, 1, 3, 7, 8, 11] - 874.16</t>
-  </si>
-  <si>
-    <t>[6, 1, 9, 2, 11] - 858,12</t>
-  </si>
-  <si>
-    <t>[4, 5, 12, 3, 7, 8] - 671,06</t>
-  </si>
-  <si>
     <t>Max cap</t>
   </si>
   <si>
-    <t>4-5-12-1-9-2-8-11 - 964,34</t>
-  </si>
-  <si>
-    <t>2-3-4-1-9-7-8-11 -  1030,88</t>
-  </si>
-  <si>
-    <t>10-2-3-1-6 - 1051,28</t>
-  </si>
-  <si>
-    <t>4-5-12-9-7-8-11 - 811,50</t>
-  </si>
-  <si>
-    <t>2-8-7-3-4-12-1-9 - 969,38</t>
-  </si>
-  <si>
-    <t>6-1-9-3-7-8-11 - 1032,44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-8-7-3-4-12-1-9 - 969,38 </t>
-  </si>
-  <si>
     <t>Problem instance 14</t>
   </si>
   <si>
-    <t>Day: 0 - vessel 1: -, vessel 2: -, vessel 3: -, vessel 4: 2-3-4-1-9-7-8-13</t>
-  </si>
-  <si>
-    <t>Day: 1 - vessel 1: 10-8-7-9-2-11-13, vessel 2: 4-5-12-1-3-6-14, vessel 3: -, vessel 4: -</t>
-  </si>
-  <si>
-    <t>Day: 2 - vessel 1: -, vessel 2: -, vessel 3: 4-12-1-9-7-14-8-11, vessel 4: -</t>
-  </si>
-  <si>
-    <t>Day: 3 - vessel 1: -, vessel 2: -, vessel 3: -, vessel 4: 2-3-4-1-9-7-8-13</t>
-  </si>
-  <si>
-    <t>Day: 4 - vessel 1: 8-14-3-1-12-9-2-11, vessel 2: -, vessel 3: -, vessel 4: -</t>
-  </si>
-  <si>
-    <t>Day: 5 - vessel 1: -, vessel 2: 7-3-1-6-14-8-13, vessel 3: 4-5-12-9-2-11, vessel 4: -</t>
-  </si>
-  <si>
     <t>Day: 6 - vessel 1: -, vessel 2: -, vessel 3: -, vessel 4: -</t>
   </si>
   <si>
@@ -397,56 +322,236 @@
     <t>4-5-12-9-2-11</t>
   </si>
   <si>
-    <t>Day: 0 - vessel 1: [7, 14, 8, 13] cost: 48780,18 dur: 26,25 cap: 384,38, vessel 2: -, vessel 3: [4, 12, 3, 1, 9, 2, 11] cost: 107449,71 dur: 59,66 cap: 943,50, vessel 4: -</t>
-  </si>
-  <si>
-    <t>Day: 1 - vessel 1: -, vessel 2: [4, 1, 3, 9, 7, 8, 11] cost: 105837,85 dur: 58,33 cap: 889,76, vessel 3: -, vessel 4: -</t>
-  </si>
-  <si>
-    <t>Day: 2 - vessel 1: [10, 2, 6, 14] cost: 53179,49 dur: 29,88 cap: 847,62, vessel 2: -, vessel 3: -, vessel 4: [4, 5, 12, 1, 9, 7, 8, 13] cost: 112200,48 dur: 62,58 cap: 949,10</t>
-  </si>
-  <si>
-    <t>Day: 3 - vessel 1: -, vessel 2: -, vessel 3: [9, 1, 3, 14, 8, 7, 2, 11] cost: 80181,29 dur: 48,16 cap: 947,66, vessel 4: -</t>
-  </si>
-  <si>
-    <t>Day: 4 - vessel 1: [4, 12, 3, 1, 9, 2, 8, 13] cost: 112600,42 dur: 62,91 cap: 1008,50, vessel 2: -, vessel 3: -, vessel 4: -</t>
-  </si>
-  <si>
-    <t>Day: 5 - vessel 1: -, vessel 2: [14, 3, 6, 7, 8, 11] cost: 63626,33 dur: 36,50 cap: 823,34, vessel 3: -, vessel 4: [4, 5, 12, 1, 9, 2, 13] cost: 107752,70 dur: 59,91 cap: 929,34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [7, 14, 8, 13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [4, 12, 3, 1, 9, 2, 11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [4, 1, 3, 9, 7, 8, 11]</t>
-  </si>
-  <si>
-    <t>[10, 2, 6, 14]</t>
-  </si>
-  <si>
-    <t>[4, 5, 12, 1, 9, 7, 8, 13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [9, 1, 3, 14, 8, 7, 2, 11]</t>
-  </si>
-  <si>
-    <t>[4, 12, 3, 1, 9, 2, 8, 13</t>
-  </si>
-  <si>
-    <t>[14, 3, 6, 7, 8, 11]</t>
-  </si>
-  <si>
-    <t>[4, 5, 12, 1, 9, 2, 13]</t>
+    <t>6-1-3-7-8-10</t>
+  </si>
+  <si>
+    <t>6-1-9-3-2-8-11</t>
+  </si>
+  <si>
+    <t>4-5-12-1-9-7-8-11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,7,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,7,8,9,12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,11,12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,7,8,9,11</t>
+  </si>
+  <si>
+    <t>1,4,5,7,8,9,11,12</t>
+  </si>
+  <si>
+    <t>1,2,3,6,8,9,11</t>
+  </si>
+  <si>
+    <t>Reversed installation pattern</t>
+  </si>
+  <si>
+    <t>0,1,2,4,5</t>
+  </si>
+  <si>
+    <t>0,1,3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8, 7, 3, 1, 4, 12, 9, 2]</t>
+  </si>
+  <si>
+    <t>[11, 10]</t>
+  </si>
+  <si>
+    <t>[9, 1, 6, 2, 7, 8, 11]</t>
+  </si>
+  <si>
+    <t>[8, 7, 3, 12, 5, 4, 1, 9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4, 12, 3, 1, 9, 2, 8]</t>
+  </si>
+  <si>
+    <t>[11, 8, 2, 3, 4, 1, 9, 7]</t>
+  </si>
+  <si>
+    <t>[4, 5, 12, 3, 1, 9, 7, 8]</t>
+  </si>
+  <si>
+    <t>[11, 2, 6]</t>
+  </si>
+  <si>
+    <t>1,2,6,7,8,9,11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,8,9,12</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,</t>
+  </si>
+  <si>
+    <t>0,1,3,4,</t>
+  </si>
+  <si>
+    <t>0,2,3,5</t>
+  </si>
+  <si>
+    <t>1,3,4,5,7,8,9,12</t>
+  </si>
+  <si>
+    <t>0,1,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bytter: </t>
+  </si>
+  <si>
+    <t>1,2,3,4,7,8,9,11,12</t>
+  </si>
+  <si>
+    <t>1,2,4,5</t>
+  </si>
+  <si>
+    <t>1,3,4,7,8,9,11,12</t>
+  </si>
+  <si>
+    <t>1,2,5,6,7,8,9,11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,8,9,12</t>
+  </si>
+  <si>
+    <t>1,3,4,7,8,9,12</t>
+  </si>
+  <si>
+    <t>1,2,4,7,8,9,11</t>
+  </si>
+  <si>
+    <t>1,2,3,6,7,8,9,11</t>
+  </si>
+  <si>
+    <t>[4, 5, 12, 9, 7, 8, 10</t>
+  </si>
+  <si>
+    <t>[11, 2, 3, 1, 6]</t>
+  </si>
+  <si>
+    <t>[8, 7, 3, 1, 4, 9, 2, 11]</t>
+  </si>
+  <si>
+    <t>[8, 7, 2, 3, 4, 12, 1, 9]</t>
+  </si>
+  <si>
+    <t>[11, 8, 7, 3, 9, 1, 6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4, 5, 12, 1, 9, 2, 8, 11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9, 1, 12, 4, 3, 7, 8, 2]</t>
+  </si>
+  <si>
+    <t>1,3,6,7,8,9,11</t>
+  </si>
+  <si>
+    <t>1,2,4,5,8,9,11,12</t>
+  </si>
+  <si>
+    <t>0,2,4,5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,11,12,13,14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,7,8,9,13</t>
+  </si>
+  <si>
+    <t>1,4,7,8,9,11,12,14</t>
+  </si>
+  <si>
+    <t>1,2,3,8,9,11,12,14</t>
+  </si>
+  <si>
+    <t>Day: 0 - vessel 1: [2, 3, 4, 1, 9, 7, 8, 13] cost: 112297,43 dur: 62,66 cap: 1045,88, vessel 2: -, vessel 3: -, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 1 - vessel 1: -, vessel 2: [13, 8, 14, 7, 6, 2, 11] cost: 67662,05 dur: 39,83 cap: 959,90, vessel 3: -, vessel 4: [9, 1, 3, 12, 5, 4] cost: 103716,97 dur: 56,58 cap: 792,78</t>
+  </si>
+  <si>
+    <t>Day: 2 - vessel 1: -, vessel 2: -, vessel 3: [11, 8, 14, 3, 4, 12, 1, 9] cost: 112200,48 dur: 62,58 cap: 925,88, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 3 - vessel 1: [13, 8, 7, 9, 4, 1, 3, 2] cost: 112297,43 dur: 62,66 cap: 1045,88, vessel 2: -, vessel 3: -, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 4 - vessel 1: -, vessel 2: -, vessel 3: -, vessel 4: [14, 7, 8, 2, 9, 12, 1, 11] cost: 90785,68 dur: 51,91 cap: 866,60</t>
+  </si>
+  <si>
+    <t>Day: 5 - vessel 1: -, vessel 2: [11, 2, 7, 6, 12, 5, 4] cost: 103413,99 dur: 56,33 cap: 1042,02, vessel 3: [13, 10, 8, 14, 3, 1, 9] cost: 77115,11 dur: 46,63 cap: 1044,26, vessel 4: -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 3, 4, 1, 9, 7, 8, 13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [13, 8, 14, 7, 6, 2, 11] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9, 1, 3, 12, 5, 4] </t>
+  </si>
+  <si>
+    <t>[11, 8, 14, 3, 4, 12, 1, 9</t>
+  </si>
+  <si>
+    <t>[13, 8, 7, 9, 4, 1, 3, 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [14, 7, 8, 2, 9, 12, 1, 11] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11, 2, 7, 6, 12, 5, 4]</t>
+  </si>
+  <si>
+    <t>[13, 10, 8, 14, 3, 1, 9]</t>
+  </si>
+  <si>
+    <t>1,3,4,8,9,11,12,14</t>
+  </si>
+  <si>
+    <t>1,2,7,8,9,11,12,14</t>
+  </si>
+  <si>
+    <t>swap 3 og 7</t>
+  </si>
+  <si>
+    <t>Day: 0 - vessel 1: [4, 12, 3, 1, 9, 7, 2, 8] cost: 113206,38 dur: 62,41 cap: 969,38, vessel 2: -, vessel 3: [10, 13] cost: 33691,65 dur: 18,80 cap: 483,60, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 1 - vessel 1: -, vessel 2: [4, 5, 12, 6, 7, 2, 11] cost: 103413,99 dur: 56,33 cap: 1042,02, vessel 3: -, vessel 4: [9, 1, 3, 14, 8, 13] cost: 67965,03 dur: 40,08 cap: 710,66</t>
+  </si>
+  <si>
+    <t>Day: 2 - vessel 1: -, vessel 2: -, vessel 3: [8, 14, 3, 4, 1, 9, 2, 11] cost: 112600,42 dur: 62,91 cap: 993,50, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 3 - vessel 1: [4, 12, 1, 9, 7, 2, 8, 13] cost: 110782,52 dur: 61,41 cap: 964,82, vessel 2: -, vessel 3: -, vessel 4: -</t>
+  </si>
+  <si>
+    <t>Day: 4 - vessel 1: -, vessel 2: -, vessel 3: -, vessel 4: [11, 8, 7, 14, 3, 1, 9] cost: 73721,70 dur: 43,83 cap: 806,54</t>
+  </si>
+  <si>
+    <t>Day: 5 - vessel 1: -, vessel 2: [4, 5, 12, 9, 7, 2, 13] cost: 107049,78 dur: 59,33 cap: 917,62, vessel 3: [11, 8, 14, 3, 1, 6] cost: 64329,24 dur: 37,08 cap: 835,06, vessel 4: -</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -485,13 +590,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -503,7 +621,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="239">
+  <cellStyleXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -743,18 +861,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="239">
+  <cellStyles count="321">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -874,6 +1076,47 @@
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -993,6 +1236,47 @@
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1338,16 +1622,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="4" spans="2:31">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="5"/>
+      <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="2:31">
       <c r="B5" t="s">
@@ -1597,7 +1881,7 @@
       <c r="K11" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1638,21 +1922,21 @@
       </c>
     </row>
     <row r="13" spans="2:31">
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="15" spans="2:31">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f>SUMPRODUCT(C6:C14,D6:D14)</f>
         <v>615212</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f>SUM(D6:D14)</f>
         <v>6</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>SUM(E6:E14)</f>
         <v>42</v>
       </c>
@@ -1913,18 +2197,18 @@
       </c>
     </row>
     <row r="24" spans="2:24">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUMPRODUCT(C19:C23,D19:D23)</f>
         <v>615209</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f>SUM(D19:D23)</f>
         <v>6</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <f>SUMPRODUCT(D19:D23,E19:E23)</f>
         <v>42</v>
       </c>
@@ -1945,7 +2229,7 @@
       </c>
     </row>
     <row r="26" spans="2:24">
-      <c r="B26" s="2"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="28" spans="2:24">
       <c r="I28" t="s">
@@ -2013,7 +2297,7 @@
       <c r="K30" t="s">
         <v>53</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2210,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2222,10 +2506,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
@@ -2247,21 +2531,21 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f>SUMPRODUCT(C6:C14,D6:D14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f>SUM(D6:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>SUM(E6:E14)</f>
         <v>0</v>
       </c>
@@ -2472,18 +2756,18 @@
       </c>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f>SUMPRODUCT(C19:C22,D19:D22)</f>
         <v>621935</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f>SUM(D19:D22)</f>
         <v>6</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f>SUMPRODUCT(D19:D22,E19:E22)</f>
         <v>43</v>
       </c>
@@ -2504,7 +2788,7 @@
       </c>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="2"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="2:22">
       <c r="M27">
@@ -2622,37 +2906,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N27"/>
+  <dimension ref="B3:AD37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:30">
+      <c r="B3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="5" spans="2:30">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="N5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:14">
+      <c r="P5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AD5" s="6"/>
+    </row>
+    <row r="6" spans="2:30">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -2683,10 +2975,46 @@
       <c r="L6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:14">
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <v>9</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
+      </c>
+      <c r="AC6">
+        <v>11</v>
+      </c>
+      <c r="AD6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>33691</v>
@@ -2701,16 +3029,55 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:14">
+      <c r="P7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7">
+        <v>2.5</v>
+      </c>
+      <c r="X7">
+        <v>1.5</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30">
       <c r="B8" t="s">
         <v>79</v>
       </c>
@@ -2726,14 +3093,17 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
-        <v>95</v>
+      <c r="J8" t="s">
+        <v>114</v>
       </c>
       <c r="N8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:14">
+      <c r="P8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30">
       <c r="B9" t="s">
         <v>80</v>
       </c>
@@ -2749,14 +3119,29 @@
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
-        <v>96</v>
+      <c r="K9" t="s">
+        <v>115</v>
       </c>
       <c r="N9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:14">
+      <c r="P9" t="s">
+        <v>125</v>
+      </c>
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30">
       <c r="B10" t="s">
         <v>81</v>
       </c>
@@ -2772,14 +3157,32 @@
       <c r="H10">
         <v>3</v>
       </c>
-      <c r="K10" t="s">
-        <v>97</v>
+      <c r="L10" t="s">
+        <v>116</v>
       </c>
       <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="U10" t="s">
+        <v>127</v>
+      </c>
+      <c r="V10">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>129</v>
+      </c>
+      <c r="X10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:14">
+      <c r="Z10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30">
       <c r="B11" t="s">
         <v>82</v>
       </c>
@@ -2795,14 +3198,29 @@
       <c r="H11">
         <v>4</v>
       </c>
-      <c r="L11" t="s">
-        <v>98</v>
+      <c r="I11" t="s">
+        <v>117</v>
       </c>
       <c r="N11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
+        <v>8</v>
+      </c>
+      <c r="P11" t="s">
+        <v>106</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>1.5</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30">
       <c r="B12" t="s">
         <v>83</v>
       </c>
@@ -2818,17 +3236,27 @@
       <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="1"/>
       <c r="N12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:14">
+      <c r="P12" t="s">
+        <v>104</v>
+      </c>
+      <c r="X12">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -2844,9 +3272,19 @@
       <c r="H13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="2" t="s">
+      <c r="N13">
+        <f>SUM(N7:N12)</f>
+        <v>51</v>
+      </c>
+      <c r="X13">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30">
+      <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C14">
@@ -2859,34 +3297,40 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I14">
+        <v>1090</v>
+      </c>
+      <c r="J14">
+        <v>1090</v>
+      </c>
+      <c r="K14">
         <v>1046</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>900</v>
       </c>
-      <c r="K14">
-        <v>1090</v>
-      </c>
-      <c r="L14">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="3" t="s">
+      <c r="X14">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f>SUMPRODUCT(C7:C14,D7:D14)</f>
         <v>715253</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f>SUM(D7:D14)</f>
         <v>8</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>SUM(E7:E14)</f>
         <v>51</v>
       </c>
@@ -2895,12 +3339,12 @@
         <v>6.375</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:30">
       <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:30">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -2928,161 +3372,265 @@
       <c r="L18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:14">
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <v>8</v>
+      </c>
+      <c r="AA18">
+        <v>9</v>
+      </c>
+      <c r="AB18">
+        <v>10</v>
+      </c>
+      <c r="AC18">
+        <v>11</v>
+      </c>
+      <c r="AD18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30">
       <c r="B19" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C19">
-        <v>112297</v>
+        <v>65601</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
-        <v>105</v>
+      <c r="I19" t="s">
+        <v>99</v>
       </c>
       <c r="L19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="2:14">
+      <c r="P19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" t="s">
+        <v>110</v>
+      </c>
+      <c r="U19" t="s">
+        <v>110</v>
+      </c>
+      <c r="V19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19">
+        <v>0.3</v>
+      </c>
+      <c r="X19">
+        <v>0.4</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30">
       <c r="B20" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C20">
-        <v>112903</v>
+        <v>101293</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="K20" t="s">
-        <v>103</v>
+      <c r="J20" t="s">
+        <v>86</v>
       </c>
       <c r="N20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="P20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21">
-        <v>61154</v>
+        <v>112297</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="I21" t="s">
-        <v>106</v>
+      <c r="K21" t="s">
+        <v>87</v>
       </c>
       <c r="N21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:14">
+      <c r="P21" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30">
       <c r="B22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22">
-        <v>74934</v>
+        <v>113206</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
-      <c r="L22" t="s">
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="P22" t="s">
         <v>107</v>
       </c>
-      <c r="N22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
+    </row>
+    <row r="23" spans="2:30">
       <c r="B23" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C23">
-        <v>105741</v>
+        <v>112200</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
-      <c r="K23" t="s">
-        <v>102</v>
+      <c r="J23" t="s">
+        <v>100</v>
       </c>
       <c r="N23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
+        <v>7</v>
+      </c>
+      <c r="P23" t="s">
+        <v>108</v>
+      </c>
+      <c r="X23" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30">
       <c r="B24" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C24">
-        <v>113206</v>
+        <v>75636</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" t="s">
-        <v>108</v>
+      <c r="K24" t="s">
+        <v>87</v>
       </c>
       <c r="N24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="3" t="s">
+      <c r="P24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X24" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f>SUMPRODUCT(C19:C24,D19:D24)</f>
-        <v>693441</v>
-      </c>
-      <c r="D25" s="3">
+        <v>693439</v>
+      </c>
+      <c r="D25" s="2">
         <f>SUM(D19:D24)</f>
         <v>7</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f>SUMPRODUCT(D19:D24,E19:E24)</f>
         <v>51</v>
       </c>
@@ -3093,10 +3641,21 @@
       <c r="H25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="2:14">
+      <c r="N25">
+        <f>SUM(N19:N24)</f>
+        <v>51</v>
+      </c>
+      <c r="X25" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30">
       <c r="H26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I26">
         <v>1046</v>
@@ -3110,9 +3669,335 @@
       <c r="L26">
         <v>1090</v>
       </c>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="2"/>
+      <c r="X26" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30">
+      <c r="B27" s="1"/>
+      <c r="X27" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30">
+      <c r="X28" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30">
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30">
+        <v>65601</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" t="s">
+        <v>137</v>
+      </c>
+      <c r="N30">
+        <v>12</v>
+      </c>
+      <c r="P30" t="s">
+        <v>105</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>5</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
+        <v>7</v>
+      </c>
+      <c r="Z30">
+        <v>8</v>
+      </c>
+      <c r="AA30">
+        <v>9</v>
+      </c>
+      <c r="AB30">
+        <v>10</v>
+      </c>
+      <c r="AC30">
+        <v>11</v>
+      </c>
+      <c r="AD30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30">
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>101293</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>138</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="P31" t="s">
+        <v>106</v>
+      </c>
+      <c r="S31" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31" t="s">
+        <v>110</v>
+      </c>
+      <c r="U31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" t="s">
+        <v>110</v>
+      </c>
+      <c r="W31">
+        <v>0.4</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <v>112297</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="P32" t="s">
+        <v>103</v>
+      </c>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="2:24">
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>113206</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>140</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="P33" t="s">
+        <v>143</v>
+      </c>
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="2:24">
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34">
+        <v>112200</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>141</v>
+      </c>
+      <c r="N34">
+        <v>8</v>
+      </c>
+      <c r="P34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>75636</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35">
+        <v>8</v>
+      </c>
+      <c r="P35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24">
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2">
+        <f>SUMPRODUCT(C30:C35,D30:D35)</f>
+        <v>693439</v>
+      </c>
+      <c r="D36" s="2">
+        <f>SUM(D30:D35)</f>
+        <v>7</v>
+      </c>
+      <c r="E36" s="2">
+        <f>SUMPRODUCT(D30:D35,E30:E35)</f>
+        <v>51</v>
+      </c>
+      <c r="F36">
+        <f>E36/D36</f>
+        <v>7.2857142857142856</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24">
+      <c r="H37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37">
+        <v>1046</v>
+      </c>
+      <c r="J37">
+        <v>900</v>
+      </c>
+      <c r="K37">
+        <v>1090</v>
+      </c>
+      <c r="L37">
+        <v>1090</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3130,10 +4015,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N35"/>
+  <dimension ref="B3:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7:AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3146,13 +4031,13 @@
     <col min="13" max="13" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14">
-      <c r="B3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="5" spans="2:14">
+    <row r="3" spans="2:29">
+      <c r="B3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="5" spans="2:29">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -3160,7 +4045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:29">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -3192,90 +4077,175 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:29">
+      <c r="G7" s="2">
+        <v>112297</v>
+      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="N7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="G8" s="2">
+        <f>67662+103716</f>
+        <v>171378</v>
+      </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="L8" t="s">
+        <v>159</v>
       </c>
       <c r="N8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
+        <v>13</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="G9">
+        <v>112200</v>
+      </c>
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" t="s">
-        <v>134</v>
+      <c r="K9" t="s">
+        <v>160</v>
       </c>
       <c r="N9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
+        <v>8</v>
+      </c>
+      <c r="P9" t="s">
+        <v>165</v>
+      </c>
+      <c r="S9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="G10" s="2">
+        <v>112297</v>
+      </c>
       <c r="H10">
         <v>3</v>
       </c>
-      <c r="K10" t="s">
-        <v>135</v>
+      <c r="I10" t="s">
+        <v>161</v>
       </c>
       <c r="N10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:14">
+      <c r="P10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="G11">
+        <v>90785</v>
+      </c>
       <c r="H11">
         <v>4</v>
       </c>
-      <c r="I11" t="s">
-        <v>136</v>
+      <c r="L11" t="s">
+        <v>162</v>
       </c>
       <c r="N11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:14">
+      <c r="P11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29">
+      <c r="F12">
+        <f>G9+G11</f>
+        <v>202985</v>
+      </c>
+      <c r="G12" s="2">
+        <f>103414+77115</f>
+        <v>180529</v>
+      </c>
       <c r="H12">
         <v>5</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12" t="s">
-        <v>138</v>
+      <c r="J12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" t="s">
+        <v>164</v>
       </c>
       <c r="N12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
+        <v>14</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29">
       <c r="H13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="2"/>
+      <c r="S13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29">
+      <c r="B14" s="1"/>
+      <c r="G14">
+        <f>SUM(G7:G12)</f>
+        <v>779486</v>
+      </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I14">
         <v>1046</v>
@@ -3294,19 +4264,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:29">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f>SUMPRODUCT(C7:C14,D7:D14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f>SUM(D7:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>SUM(E7:E14)</f>
         <v>0</v>
       </c>
@@ -3315,12 +4285,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="16" spans="2:29">
+      <c r="G16">
+        <f>G12+G10+G7+G8+G21+G23</f>
+        <v>777064</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:19">
       <c r="B18" t="s">
         <v>2</v>
       </c>
@@ -3349,86 +4325,135 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:19">
+      <c r="G19" s="2">
+        <v>112297</v>
+      </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="N19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:14">
+      <c r="P19" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="G20" s="2">
+        <f>113509+57870</f>
+        <v>171379</v>
+      </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="N20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="P20" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="G21">
+        <v>90180</v>
+      </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="N21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:14">
+      <c r="P21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="S21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="G22" s="2">
+        <v>112297</v>
+      </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="N22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:14">
+      <c r="P22" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="F23">
+        <f>G21+G23</f>
+        <v>200563</v>
+      </c>
+      <c r="G23">
+        <v>110383</v>
+      </c>
       <c r="H23">
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="N23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:14">
+      <c r="P23" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="G24" s="2">
+        <f>67214+113315</f>
+        <v>180529</v>
+      </c>
       <c r="H24">
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="N24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="2:14">
+      <c r="P24" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
       <c r="H25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:19">
+      <c r="G26">
+        <f>SUM(G19:G24)</f>
+        <v>777065</v>
+      </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I26">
         <v>1046</v>
@@ -3447,81 +4472,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="2:19">
+      <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f>SUMPRODUCT(C19:C24,D19:D24)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <f>SUM(D19:D24)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f>SUMPRODUCT(D19:D24,E19:E24)</f>
         <v>0</v>
       </c>
       <c r="F27" t="e">
         <f>E27/D27</f>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" t="s">
-        <v>113</v>
-      </c>
-      <c r="I32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +4512,7 @@
   <dimension ref="A3:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3582,12 +4551,12 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f>C4/D4</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G15" si="0">C4/8</f>
+        <f t="shared" ref="G4:G14" si="0">C4/8</f>
         <v>2</v>
       </c>
     </row>
@@ -3604,7 +4573,7 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f t="shared" ref="F5:F15" si="1">C5/D5</f>
         <v>3.5</v>
       </c>
@@ -3626,7 +4595,7 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" si="1"/>
         <v>3.8333333333333335</v>
       </c>
@@ -3648,7 +4617,7 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="1"/>
         <v>4.166666666666667</v>
       </c>
@@ -3670,7 +4639,7 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3692,7 +4661,7 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3714,7 +4683,7 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3736,7 +4705,7 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="1"/>
         <v>7.166666666666667</v>
       </c>
@@ -3758,7 +4727,7 @@
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="1"/>
         <v>6.7142857142857144</v>
       </c>
@@ -3783,7 +4752,7 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>7.2857142857142856</v>
       </c>
@@ -3808,7 +4777,7 @@
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
         <v>6.875</v>
       </c>
@@ -3833,7 +4802,7 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
         <v>6.5555555555555554</v>
       </c>
